--- a/result/gr75_010_simulated/details.xlsx
+++ b/result/gr75_010_simulated/details.xlsx
@@ -570,73 +570,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5869948863983154</v>
+        <v>0.5976617336273193</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1935.425755926095</v>
+        <v>1806.468575708612</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08607067724452575</v>
+        <v>0.08560086259044505</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06667857324275894</v>
+        <v>0.06574912211457055</v>
       </c>
       <c r="H2" t="n">
-        <v>0.05778661312569151</v>
+        <v>0.05733266186615138</v>
       </c>
       <c r="I2" t="n">
-        <v>0.05561998988577629</v>
+        <v>0.05066433169342888</v>
       </c>
       <c r="J2" t="n">
-        <v>0.05325092869752631</v>
+        <v>0.0480582989953702</v>
       </c>
       <c r="K2" t="n">
-        <v>0.04961554790917558</v>
+        <v>0.04518442706794643</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04660180254007234</v>
+        <v>0.04383405651500173</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04655872621751896</v>
+        <v>0.04139457088581598</v>
       </c>
       <c r="N2" t="n">
-        <v>0.04391760640262054</v>
+        <v>0.0407818970491105</v>
       </c>
       <c r="O2" t="n">
-        <v>0.04364362663187762</v>
+        <v>0.03998739670879708</v>
       </c>
       <c r="P2" t="n">
-        <v>0.04169479897961683</v>
+        <v>0.03936233586700081</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.04103626018161589</v>
+        <v>0.037936642660431</v>
       </c>
       <c r="R2" t="n">
-        <v>0.04103626018161589</v>
+        <v>0.03700533369581052</v>
       </c>
       <c r="S2" t="n">
-        <v>0.03982966243897108</v>
+        <v>0.03661382972024962</v>
       </c>
       <c r="T2" t="n">
-        <v>0.03855212191284019</v>
+        <v>0.03617042805258851</v>
       </c>
       <c r="U2" t="n">
-        <v>0.03846675214202499</v>
+        <v>0.03617042805258851</v>
       </c>
       <c r="V2" t="n">
-        <v>0.03804870859942994</v>
+        <v>0.03575799179583767</v>
       </c>
       <c r="W2" t="n">
-        <v>0.03777493579432566</v>
+        <v>0.03560555439549738</v>
       </c>
       <c r="X2" t="n">
-        <v>0.03777493579432566</v>
+        <v>0.03541846365061712</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.03772759758140536</v>
+        <v>0.03521381239198073</v>
       </c>
     </row>
     <row r="3">
@@ -649,73 +649,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6299605369567871</v>
+        <v>0.6562473773956299</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1673.207294827369</v>
+        <v>1807.665806068271</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09065915752974267</v>
+        <v>0.08926126878392274</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06708954001087504</v>
+        <v>0.06700466454246336</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05608537848174205</v>
+        <v>0.05952814514996359</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05331338305787545</v>
+        <v>0.04894187871438552</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0476914140512277</v>
+        <v>0.04894187871438552</v>
       </c>
       <c r="K3" t="n">
-        <v>0.04556753355600526</v>
+        <v>0.04676211193500163</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04161186198717007</v>
+        <v>0.0429695971775418</v>
       </c>
       <c r="M3" t="n">
-        <v>0.03889616401261634</v>
+        <v>0.04216994795310181</v>
       </c>
       <c r="N3" t="n">
-        <v>0.03654704403626103</v>
+        <v>0.04083413420651079</v>
       </c>
       <c r="O3" t="n">
-        <v>0.03598501835044223</v>
+        <v>0.03932713636711409</v>
       </c>
       <c r="P3" t="n">
-        <v>0.03598263241232753</v>
+        <v>0.03871332503778702</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.03437746468185902</v>
+        <v>0.03854840727114529</v>
       </c>
       <c r="R3" t="n">
-        <v>0.03360729564113126</v>
+        <v>0.03785455783398946</v>
       </c>
       <c r="S3" t="n">
-        <v>0.03360729564113126</v>
+        <v>0.03715921629398585</v>
       </c>
       <c r="T3" t="n">
-        <v>0.03360729564113126</v>
+        <v>0.03711638117820813</v>
       </c>
       <c r="U3" t="n">
-        <v>0.03324944791638855</v>
+        <v>0.03585138749227134</v>
       </c>
       <c r="V3" t="n">
-        <v>0.03324944791638855</v>
+        <v>0.03585138749227134</v>
       </c>
       <c r="W3" t="n">
-        <v>0.0330492161135773</v>
+        <v>0.03561642812237189</v>
       </c>
       <c r="X3" t="n">
-        <v>0.03283403872922244</v>
+        <v>0.03561642812237189</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.032616126604822</v>
+        <v>0.03523715021575577</v>
       </c>
     </row>
     <row r="4">
@@ -728,73 +728,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5579960346221924</v>
+        <v>0.6241059303283691</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1862.025421801516</v>
+        <v>1773.733536374357</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08547223290854339</v>
+        <v>0.08537155427990441</v>
       </c>
       <c r="G4" t="n">
-        <v>0.07003577782415543</v>
+        <v>0.06824074674906187</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0617357888922264</v>
+        <v>0.06101614032988132</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05527157814402361</v>
+        <v>0.05439879326683741</v>
       </c>
       <c r="J4" t="n">
-        <v>0.04967403598941466</v>
+        <v>0.04781315108862522</v>
       </c>
       <c r="K4" t="n">
-        <v>0.04600849558133988</v>
+        <v>0.04651609695628686</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04470061193764165</v>
+        <v>0.04381048617728529</v>
       </c>
       <c r="M4" t="n">
-        <v>0.04314190740131556</v>
+        <v>0.04223914149851184</v>
       </c>
       <c r="N4" t="n">
-        <v>0.04299821311878092</v>
+        <v>0.03929323660679783</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0406819327554323</v>
+        <v>0.03892568734778481</v>
       </c>
       <c r="P4" t="n">
-        <v>0.04031760365783236</v>
+        <v>0.03875254816293498</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.03868255876845603</v>
+        <v>0.03759809293237855</v>
       </c>
       <c r="R4" t="n">
-        <v>0.03818436544020348</v>
+        <v>0.03717889621805095</v>
       </c>
       <c r="S4" t="n">
-        <v>0.03805956745206317</v>
+        <v>0.03674632910281461</v>
       </c>
       <c r="T4" t="n">
-        <v>0.03782416068933643</v>
+        <v>0.0365726846530563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03759653368006743</v>
+        <v>0.03613867491293095</v>
       </c>
       <c r="V4" t="n">
-        <v>0.03721943057093376</v>
+        <v>0.03549840654224003</v>
       </c>
       <c r="W4" t="n">
-        <v>0.03676600844112483</v>
+        <v>0.03522482179773609</v>
       </c>
       <c r="X4" t="n">
-        <v>0.03644266348031313</v>
+        <v>0.03486629640336285</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.03629679184798276</v>
+        <v>0.03457570246343775</v>
       </c>
     </row>
     <row r="5">
@@ -807,73 +807,73 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5400421619415283</v>
+        <v>0.5312480926513672</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1828.50798448917</v>
+        <v>1761.151153211811</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08764643326329863</v>
+        <v>0.08482318001874259</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06793173476811989</v>
+        <v>0.06336794811751684</v>
       </c>
       <c r="H5" t="n">
-        <v>0.05923278799068559</v>
+        <v>0.05808245563486555</v>
       </c>
       <c r="I5" t="n">
-        <v>0.05682840178837014</v>
+        <v>0.05255624623779582</v>
       </c>
       <c r="J5" t="n">
-        <v>0.04773923660116499</v>
+        <v>0.04603112309988559</v>
       </c>
       <c r="K5" t="n">
-        <v>0.04773923660116499</v>
+        <v>0.04343216200270867</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04630848958725023</v>
+        <v>0.04293393570594766</v>
       </c>
       <c r="M5" t="n">
-        <v>0.04403476473972001</v>
+        <v>0.04157958151993055</v>
       </c>
       <c r="N5" t="n">
-        <v>0.04111727271267273</v>
+        <v>0.04108009079121559</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0410319877704803</v>
+        <v>0.040214537238629</v>
       </c>
       <c r="P5" t="n">
-        <v>0.03909418937531058</v>
+        <v>0.03948474539108084</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0386420862212746</v>
+        <v>0.03783978995028617</v>
       </c>
       <c r="R5" t="n">
-        <v>0.03839638764416641</v>
+        <v>0.03745844160536983</v>
       </c>
       <c r="S5" t="n">
-        <v>0.03786714965142511</v>
+        <v>0.03643150565684686</v>
       </c>
       <c r="T5" t="n">
-        <v>0.03753756744634407</v>
+        <v>0.03643150565684686</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03703550875940186</v>
+        <v>0.03546920090280604</v>
       </c>
       <c r="V5" t="n">
-        <v>0.03660265468042453</v>
+        <v>0.03511271667064466</v>
       </c>
       <c r="W5" t="n">
-        <v>0.03630918018307305</v>
+        <v>0.0350168999867165</v>
       </c>
       <c r="X5" t="n">
-        <v>0.03582899877022204</v>
+        <v>0.03463301586213853</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.0356434304968649</v>
+        <v>0.03433043183648754</v>
       </c>
     </row>
     <row r="6">
@@ -886,73 +886,73 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5479717254638672</v>
+        <v>0.5312614440917969</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1779.120625419017</v>
+        <v>1852.757724778887</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08560484248693474</v>
+        <v>0.0863679041360383</v>
       </c>
       <c r="G6" t="n">
-        <v>0.06586822393819253</v>
+        <v>0.06583296023917092</v>
       </c>
       <c r="H6" t="n">
-        <v>0.05570013998542919</v>
+        <v>0.06000978761518342</v>
       </c>
       <c r="I6" t="n">
-        <v>0.05091760505341256</v>
+        <v>0.05147168892603441</v>
       </c>
       <c r="J6" t="n">
-        <v>0.04755910571891409</v>
+        <v>0.04721144784750572</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0434698046817203</v>
+        <v>0.04391555223857158</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04184891568410574</v>
+        <v>0.04195187035408634</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0399795106475934</v>
+        <v>0.04080487438478174</v>
       </c>
       <c r="N6" t="n">
-        <v>0.03921614558857992</v>
+        <v>0.04080487438478174</v>
       </c>
       <c r="O6" t="n">
-        <v>0.03819288186959618</v>
+        <v>0.03910406730974397</v>
       </c>
       <c r="P6" t="n">
-        <v>0.0367780152227505</v>
+        <v>0.03910406730974397</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0367780152227505</v>
+        <v>0.03850587367765488</v>
       </c>
       <c r="R6" t="n">
-        <v>0.0367780152227505</v>
+        <v>0.03829645229366953</v>
       </c>
       <c r="S6" t="n">
-        <v>0.03601987477329548</v>
+        <v>0.03768462273473294</v>
       </c>
       <c r="T6" t="n">
-        <v>0.03539069283048911</v>
+        <v>0.03687012163969161</v>
       </c>
       <c r="U6" t="n">
-        <v>0.03539069283048911</v>
+        <v>0.03687012163969161</v>
       </c>
       <c r="V6" t="n">
-        <v>0.035361124147756</v>
+        <v>0.03687012163969161</v>
       </c>
       <c r="W6" t="n">
-        <v>0.03524473099995491</v>
+        <v>0.0366108320933393</v>
       </c>
       <c r="X6" t="n">
-        <v>0.03483051372380026</v>
+        <v>0.0366108320933393</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.03468071394578979</v>
+        <v>0.0361161349859432</v>
       </c>
     </row>
     <row r="7">
@@ -965,73 +965,73 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5350000858306885</v>
+        <v>0.5312504768371582</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1832.815647025542</v>
+        <v>1724.182085578615</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08651386995712068</v>
+        <v>0.08512857138646447</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06772396343306099</v>
+        <v>0.06450526370503103</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05865291332635849</v>
+        <v>0.05521464252854071</v>
       </c>
       <c r="I7" t="n">
-        <v>0.05198283272944657</v>
+        <v>0.05035078510835539</v>
       </c>
       <c r="J7" t="n">
-        <v>0.04768708899803936</v>
+        <v>0.04819242687295605</v>
       </c>
       <c r="K7" t="n">
-        <v>0.04706336038388777</v>
+        <v>0.04502861270157941</v>
       </c>
       <c r="L7" t="n">
-        <v>0.04406727352908189</v>
+        <v>0.04345230591238183</v>
       </c>
       <c r="M7" t="n">
-        <v>0.04105060703148707</v>
+        <v>0.04030346733668112</v>
       </c>
       <c r="N7" t="n">
-        <v>0.04073533635443884</v>
+        <v>0.04030346733668112</v>
       </c>
       <c r="O7" t="n">
-        <v>0.04016659573300253</v>
+        <v>0.03886844001359686</v>
       </c>
       <c r="P7" t="n">
-        <v>0.03974301479650411</v>
+        <v>0.03695604488102404</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.03871324265057424</v>
+        <v>0.03682704807558641</v>
       </c>
       <c r="R7" t="n">
-        <v>0.03824912988477658</v>
+        <v>0.03654882779917468</v>
       </c>
       <c r="S7" t="n">
-        <v>0.03805744132638252</v>
+        <v>0.03551882953014283</v>
       </c>
       <c r="T7" t="n">
-        <v>0.03701092524168433</v>
+        <v>0.03551882953014283</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03681555154258177</v>
+        <v>0.03458832289149294</v>
       </c>
       <c r="V7" t="n">
-        <v>0.03637929995335088</v>
+        <v>0.03444975431453014</v>
       </c>
       <c r="W7" t="n">
-        <v>0.03617792962127819</v>
+        <v>0.03417814335690385</v>
       </c>
       <c r="X7" t="n">
-        <v>0.03590858150863672</v>
+        <v>0.03407139130590393</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.03572740052681367</v>
+        <v>0.03360978724324785</v>
       </c>
     </row>
     <row r="8">
@@ -1044,73 +1044,73 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5400364398956299</v>
+        <v>0.5468764305114746</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1774.858104718147</v>
+        <v>1755.495879773302</v>
       </c>
       <c r="F8" t="n">
-        <v>0.08484330631504472</v>
+        <v>0.08718237731886827</v>
       </c>
       <c r="G8" t="n">
-        <v>0.06594592374325962</v>
+        <v>0.06558120120366363</v>
       </c>
       <c r="H8" t="n">
-        <v>0.05404744346888737</v>
+        <v>0.05871634743644858</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05015904784897796</v>
+        <v>0.04793055603178414</v>
       </c>
       <c r="J8" t="n">
-        <v>0.04451697980989722</v>
+        <v>0.04667405391484881</v>
       </c>
       <c r="K8" t="n">
-        <v>0.04451697980989722</v>
+        <v>0.04537609664418107</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04193395431328581</v>
+        <v>0.04211558706205529</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0414940749756772</v>
+        <v>0.04021780178452201</v>
       </c>
       <c r="N8" t="n">
-        <v>0.04032568746367425</v>
+        <v>0.04017418625259082</v>
       </c>
       <c r="O8" t="n">
-        <v>0.03918022062499415</v>
+        <v>0.03705305364947834</v>
       </c>
       <c r="P8" t="n">
-        <v>0.03840021601212047</v>
+        <v>0.03705305364947834</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.03840021601212047</v>
+        <v>0.03705305364947834</v>
       </c>
       <c r="R8" t="n">
-        <v>0.03772497601784338</v>
+        <v>0.03655147524809303</v>
       </c>
       <c r="S8" t="n">
-        <v>0.03673261102627013</v>
+        <v>0.03585718174033449</v>
       </c>
       <c r="T8" t="n">
-        <v>0.03628856348830581</v>
+        <v>0.03502515297886575</v>
       </c>
       <c r="U8" t="n">
-        <v>0.03554370882076094</v>
+        <v>0.03476700000337292</v>
       </c>
       <c r="V8" t="n">
-        <v>0.03539454263156556</v>
+        <v>0.03458727924199133</v>
       </c>
       <c r="W8" t="n">
-        <v>0.03515368720607008</v>
+        <v>0.03428485331567468</v>
       </c>
       <c r="X8" t="n">
-        <v>0.03459762387364808</v>
+        <v>0.03428485331567468</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.03459762387364808</v>
+        <v>0.03422019258817351</v>
       </c>
     </row>
     <row r="9">
@@ -1123,73 +1123,73 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5769968032836914</v>
+        <v>0.5468649864196777</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1750.369467139188</v>
+        <v>1715.432660156823</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08570784396971426</v>
+        <v>0.08792296719804281</v>
       </c>
       <c r="G9" t="n">
-        <v>0.07067699415640932</v>
+        <v>0.06582458834481644</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05609099193241867</v>
+        <v>0.05893347864143205</v>
       </c>
       <c r="I9" t="n">
-        <v>0.05342758344734172</v>
+        <v>0.05076377973140533</v>
       </c>
       <c r="J9" t="n">
-        <v>0.04929396313964158</v>
+        <v>0.04623350212370703</v>
       </c>
       <c r="K9" t="n">
-        <v>0.04501972440004074</v>
+        <v>0.04411371696620877</v>
       </c>
       <c r="L9" t="n">
-        <v>0.04363868953084592</v>
+        <v>0.04280404679593963</v>
       </c>
       <c r="M9" t="n">
-        <v>0.04149090841415572</v>
+        <v>0.03959158036598972</v>
       </c>
       <c r="N9" t="n">
-        <v>0.04071602899913862</v>
+        <v>0.03823349180385541</v>
       </c>
       <c r="O9" t="n">
-        <v>0.03737043882391885</v>
+        <v>0.03784569161632855</v>
       </c>
       <c r="P9" t="n">
-        <v>0.0373540837481118</v>
+        <v>0.03784202451084025</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.03685688311959325</v>
+        <v>0.03667197913648539</v>
       </c>
       <c r="R9" t="n">
-        <v>0.03617228439610726</v>
+        <v>0.03585499542409722</v>
       </c>
       <c r="S9" t="n">
-        <v>0.03610092264079242</v>
+        <v>0.0354022151548756</v>
       </c>
       <c r="T9" t="n">
-        <v>0.03546932302854587</v>
+        <v>0.03459795445528014</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0344769219411391</v>
+        <v>0.034336525319059</v>
       </c>
       <c r="V9" t="n">
-        <v>0.0344769219411391</v>
+        <v>0.0341667191189395</v>
       </c>
       <c r="W9" t="n">
-        <v>0.03444950543189856</v>
+        <v>0.03370228935135031</v>
       </c>
       <c r="X9" t="n">
-        <v>0.03416144022719281</v>
+        <v>0.03360355012582299</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.03412026251733308</v>
+        <v>0.03343923314145852</v>
       </c>
     </row>
     <row r="10">
@@ -1202,73 +1202,73 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7399613857269287</v>
+        <v>0.5468835830688477</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1743.680071782203</v>
+        <v>1807.825521385472</v>
       </c>
       <c r="F10" t="n">
-        <v>0.08857032559072867</v>
+        <v>0.08601449778816503</v>
       </c>
       <c r="G10" t="n">
-        <v>0.06777285843341396</v>
+        <v>0.06904912275817471</v>
       </c>
       <c r="H10" t="n">
-        <v>0.06048504471956277</v>
+        <v>0.05874797388748215</v>
       </c>
       <c r="I10" t="n">
-        <v>0.05206372789443693</v>
+        <v>0.05182706490755814</v>
       </c>
       <c r="J10" t="n">
-        <v>0.04896688407175159</v>
+        <v>0.0477462870105682</v>
       </c>
       <c r="K10" t="n">
-        <v>0.04471358518832225</v>
+        <v>0.04617220239008156</v>
       </c>
       <c r="L10" t="n">
-        <v>0.04319106826295362</v>
+        <v>0.04397883832909889</v>
       </c>
       <c r="M10" t="n">
-        <v>0.04040890111822799</v>
+        <v>0.04181601043002973</v>
       </c>
       <c r="N10" t="n">
-        <v>0.03917364130198411</v>
+        <v>0.04126264179257171</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0382627978790627</v>
+        <v>0.03974088021910053</v>
       </c>
       <c r="P10" t="n">
-        <v>0.03700194304648413</v>
+        <v>0.03835819588876534</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.03700194304648413</v>
+        <v>0.0377406164495593</v>
       </c>
       <c r="R10" t="n">
-        <v>0.03676589566746245</v>
+        <v>0.0368001503552299</v>
       </c>
       <c r="S10" t="n">
-        <v>0.03581167438799725</v>
+        <v>0.0368001503552299</v>
       </c>
       <c r="T10" t="n">
-        <v>0.03507865595586822</v>
+        <v>0.03642703282131078</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03507865595586822</v>
+        <v>0.03626125020393249</v>
       </c>
       <c r="V10" t="n">
-        <v>0.0346669096817644</v>
+        <v>0.03583956568573277</v>
       </c>
       <c r="W10" t="n">
-        <v>0.03414341971550251</v>
+        <v>0.03558098258102033</v>
       </c>
       <c r="X10" t="n">
-        <v>0.03414341971550251</v>
+        <v>0.03548247742237016</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.03398986494702148</v>
+        <v>0.03524026357476553</v>
       </c>
     </row>
     <row r="11">
@@ -1281,73 +1281,73 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5570309162139893</v>
+        <v>0.5312497615814209</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1794.206517821889</v>
+        <v>1727.073000699475</v>
       </c>
       <c r="F11" t="n">
-        <v>0.08892769268048853</v>
+        <v>0.08601700353881347</v>
       </c>
       <c r="G11" t="n">
-        <v>0.06608833419842625</v>
+        <v>0.06786659585851582</v>
       </c>
       <c r="H11" t="n">
-        <v>0.05784515558564066</v>
+        <v>0.05769527257236647</v>
       </c>
       <c r="I11" t="n">
-        <v>0.05210767368410751</v>
+        <v>0.054487598805918</v>
       </c>
       <c r="J11" t="n">
-        <v>0.04627794849663042</v>
+        <v>0.04966698138800563</v>
       </c>
       <c r="K11" t="n">
-        <v>0.04523368451989405</v>
+        <v>0.04528757105149364</v>
       </c>
       <c r="L11" t="n">
-        <v>0.04204134349101033</v>
+        <v>0.04354265171496675</v>
       </c>
       <c r="M11" t="n">
-        <v>0.04120335999949584</v>
+        <v>0.0410408828391178</v>
       </c>
       <c r="N11" t="n">
-        <v>0.04058760813345903</v>
+        <v>0.03953801086422708</v>
       </c>
       <c r="O11" t="n">
-        <v>0.03865860274472736</v>
+        <v>0.03852363971535211</v>
       </c>
       <c r="P11" t="n">
-        <v>0.03755653886557492</v>
+        <v>0.03798951331632679</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.03703264047441768</v>
+        <v>0.03688574028108508</v>
       </c>
       <c r="R11" t="n">
-        <v>0.03691488076604402</v>
+        <v>0.03577517091126691</v>
       </c>
       <c r="S11" t="n">
-        <v>0.03633266774228444</v>
+        <v>0.03527650282062461</v>
       </c>
       <c r="T11" t="n">
-        <v>0.0360051217628457</v>
+        <v>0.03500066483031491</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03555736431169074</v>
+        <v>0.03459427012250844</v>
       </c>
       <c r="V11" t="n">
-        <v>0.03541632760344393</v>
+        <v>0.0342370161292235</v>
       </c>
       <c r="W11" t="n">
-        <v>0.03524168448696774</v>
+        <v>0.03408210435227466</v>
       </c>
       <c r="X11" t="n">
-        <v>0.0350673274431729</v>
+        <v>0.03398520827667384</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.03497478592245397</v>
+        <v>0.03366614036451217</v>
       </c>
     </row>
   </sheetData>

--- a/result/gr75_010_simulated/details.xlsx
+++ b/result/gr75_010_simulated/details.xlsx
@@ -570,73 +570,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5976617336273193</v>
+        <v>1.166001081466675</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1806.468575708612</v>
+        <v>1905.949421026427</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08560086259044505</v>
+        <v>0.1336276190416302</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06574912211457055</v>
+        <v>0.0982439249395764</v>
       </c>
       <c r="H2" t="n">
-        <v>0.05733266186615138</v>
+        <v>0.07543290281764277</v>
       </c>
       <c r="I2" t="n">
-        <v>0.05066433169342888</v>
+        <v>0.06864783755953557</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0480582989953702</v>
+        <v>0.05848606940282208</v>
       </c>
       <c r="K2" t="n">
-        <v>0.04518442706794643</v>
+        <v>0.05273187124861078</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04383405651500173</v>
+        <v>0.05023793305181231</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04139457088581598</v>
+        <v>0.04740259355738934</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0407818970491105</v>
+        <v>0.0440156755675446</v>
       </c>
       <c r="O2" t="n">
-        <v>0.03998739670879708</v>
+        <v>0.04251324011342084</v>
       </c>
       <c r="P2" t="n">
-        <v>0.03936233586700081</v>
+        <v>0.04120135785159825</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.037936642660431</v>
+        <v>0.03998900694595772</v>
       </c>
       <c r="R2" t="n">
-        <v>0.03700533369581052</v>
+        <v>0.03992414247785133</v>
       </c>
       <c r="S2" t="n">
-        <v>0.03661382972024962</v>
+        <v>0.03897165338332452</v>
       </c>
       <c r="T2" t="n">
-        <v>0.03617042805258851</v>
+        <v>0.03869947486989641</v>
       </c>
       <c r="U2" t="n">
-        <v>0.03617042805258851</v>
+        <v>0.03818965030896423</v>
       </c>
       <c r="V2" t="n">
-        <v>0.03575799179583767</v>
+        <v>0.03789584297132012</v>
       </c>
       <c r="W2" t="n">
-        <v>0.03560555439549738</v>
+        <v>0.0375685889534671</v>
       </c>
       <c r="X2" t="n">
-        <v>0.03541846365061712</v>
+        <v>0.03732017189733961</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.03521381239198073</v>
+        <v>0.03715301015646057</v>
       </c>
     </row>
     <row r="3">
@@ -649,73 +649,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6562473773956299</v>
+        <v>1.359998464584351</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1807.665806068271</v>
+        <v>1824.659199608774</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08926126878392274</v>
+        <v>0.1325212854253535</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06700466454246336</v>
+        <v>0.09830096683322269</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05952814514996359</v>
+        <v>0.06905253754975017</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04894187871438552</v>
+        <v>0.06064223679925009</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04894187871438552</v>
+        <v>0.05154669795054532</v>
       </c>
       <c r="K3" t="n">
-        <v>0.04676211193500163</v>
+        <v>0.04969908852991612</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0429695971775418</v>
+        <v>0.04607070191828877</v>
       </c>
       <c r="M3" t="n">
-        <v>0.04216994795310181</v>
+        <v>0.04306320666139202</v>
       </c>
       <c r="N3" t="n">
-        <v>0.04083413420651079</v>
+        <v>0.04040280696085036</v>
       </c>
       <c r="O3" t="n">
-        <v>0.03932713636711409</v>
+        <v>0.03972213360615853</v>
       </c>
       <c r="P3" t="n">
-        <v>0.03871332503778702</v>
+        <v>0.03865794468531609</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.03854840727114529</v>
+        <v>0.03757865875740376</v>
       </c>
       <c r="R3" t="n">
-        <v>0.03785455783398946</v>
+        <v>0.03749459972822405</v>
       </c>
       <c r="S3" t="n">
-        <v>0.03715921629398585</v>
+        <v>0.03708521544648542</v>
       </c>
       <c r="T3" t="n">
-        <v>0.03711638117820813</v>
+        <v>0.03636889663631319</v>
       </c>
       <c r="U3" t="n">
-        <v>0.03585138749227134</v>
+        <v>0.03621611334283644</v>
       </c>
       <c r="V3" t="n">
-        <v>0.03585138749227134</v>
+        <v>0.03596073159007885</v>
       </c>
       <c r="W3" t="n">
-        <v>0.03561642812237189</v>
+        <v>0.03562376097726265</v>
       </c>
       <c r="X3" t="n">
-        <v>0.03561642812237189</v>
+        <v>0.03562376097726265</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.03523715021575577</v>
+        <v>0.03556840545046341</v>
       </c>
     </row>
     <row r="4">
@@ -728,73 +728,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6241059303283691</v>
+        <v>1.186997890472412</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1773.733536374357</v>
+        <v>1878.163667730181</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08537155427990441</v>
+        <v>0.126696430494691</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06824074674906187</v>
+        <v>0.09022642224688786</v>
       </c>
       <c r="H4" t="n">
-        <v>0.06101614032988132</v>
+        <v>0.0774839113390384</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05439879326683741</v>
+        <v>0.06303023381947856</v>
       </c>
       <c r="J4" t="n">
-        <v>0.04781315108862522</v>
+        <v>0.05734017632120101</v>
       </c>
       <c r="K4" t="n">
-        <v>0.04651609695628686</v>
+        <v>0.05175459986853218</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04381048617728529</v>
+        <v>0.0469567592677923</v>
       </c>
       <c r="M4" t="n">
-        <v>0.04223914149851184</v>
+        <v>0.04470477622716963</v>
       </c>
       <c r="N4" t="n">
-        <v>0.03929323660679783</v>
+        <v>0.04288315751981753</v>
       </c>
       <c r="O4" t="n">
-        <v>0.03892568734778481</v>
+        <v>0.0413883879447148</v>
       </c>
       <c r="P4" t="n">
-        <v>0.03875254816293498</v>
+        <v>0.03983158175519631</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.03759809293237855</v>
+        <v>0.03875564487236852</v>
       </c>
       <c r="R4" t="n">
-        <v>0.03717889621805095</v>
+        <v>0.03866005991358947</v>
       </c>
       <c r="S4" t="n">
-        <v>0.03674632910281461</v>
+        <v>0.03808626685977744</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0365726846530563</v>
+        <v>0.03764471726127983</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03613867491293095</v>
+        <v>0.03742136020812947</v>
       </c>
       <c r="V4" t="n">
-        <v>0.03549840654224003</v>
+        <v>0.03685361075405776</v>
       </c>
       <c r="W4" t="n">
-        <v>0.03522482179773609</v>
+        <v>0.03685361075405776</v>
       </c>
       <c r="X4" t="n">
-        <v>0.03486629640336285</v>
+        <v>0.03663226764188224</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.03457570246343775</v>
+        <v>0.03661137753860001</v>
       </c>
     </row>
     <row r="5">
@@ -807,73 +807,73 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5312480926513672</v>
+        <v>1.242001533508301</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1761.151153211811</v>
+        <v>1761.080355877262</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08482318001874259</v>
+        <v>0.136867930071421</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06336794811751684</v>
+        <v>0.09643128711759497</v>
       </c>
       <c r="H5" t="n">
-        <v>0.05808245563486555</v>
+        <v>0.0737848153196406</v>
       </c>
       <c r="I5" t="n">
-        <v>0.05255624623779582</v>
+        <v>0.06137087636325438</v>
       </c>
       <c r="J5" t="n">
-        <v>0.04603112309988559</v>
+        <v>0.05280470713389059</v>
       </c>
       <c r="K5" t="n">
-        <v>0.04343216200270867</v>
+        <v>0.04732123733656717</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04293393570594766</v>
+        <v>0.04388290857979677</v>
       </c>
       <c r="M5" t="n">
-        <v>0.04157958151993055</v>
+        <v>0.04105685091981452</v>
       </c>
       <c r="N5" t="n">
-        <v>0.04108009079121559</v>
+        <v>0.03963930701941125</v>
       </c>
       <c r="O5" t="n">
-        <v>0.040214537238629</v>
+        <v>0.03914497456160382</v>
       </c>
       <c r="P5" t="n">
-        <v>0.03948474539108084</v>
+        <v>0.03799613069637295</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.03783978995028617</v>
+        <v>0.03655282990645944</v>
       </c>
       <c r="R5" t="n">
-        <v>0.03745844160536983</v>
+        <v>0.0357974268741478</v>
       </c>
       <c r="S5" t="n">
-        <v>0.03643150565684686</v>
+        <v>0.0351933291806543</v>
       </c>
       <c r="T5" t="n">
-        <v>0.03643150565684686</v>
+        <v>0.03484771283892917</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03546920090280604</v>
+        <v>0.03484771283892917</v>
       </c>
       <c r="V5" t="n">
-        <v>0.03511271667064466</v>
+        <v>0.03458144848604628</v>
       </c>
       <c r="W5" t="n">
-        <v>0.0350168999867165</v>
+        <v>0.03457016193906156</v>
       </c>
       <c r="X5" t="n">
-        <v>0.03463301586213853</v>
+        <v>0.03443648975844797</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.03433043183648754</v>
+        <v>0.03432905177148659</v>
       </c>
     </row>
     <row r="6">
@@ -886,73 +886,73 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5312614440917969</v>
+        <v>1.170998811721802</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1852.757724778887</v>
+        <v>1826.666673185373</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0863679041360383</v>
+        <v>0.1368864481900249</v>
       </c>
       <c r="G6" t="n">
-        <v>0.06583296023917092</v>
+        <v>0.09905298246506937</v>
       </c>
       <c r="H6" t="n">
-        <v>0.06000978761518342</v>
+        <v>0.07943362386793017</v>
       </c>
       <c r="I6" t="n">
-        <v>0.05147168892603441</v>
+        <v>0.06504037414700746</v>
       </c>
       <c r="J6" t="n">
-        <v>0.04721144784750572</v>
+        <v>0.05826452093533624</v>
       </c>
       <c r="K6" t="n">
-        <v>0.04391555223857158</v>
+        <v>0.05269596057952335</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04195187035408634</v>
+        <v>0.04847365907333451</v>
       </c>
       <c r="M6" t="n">
-        <v>0.04080487438478174</v>
+        <v>0.04521765387350313</v>
       </c>
       <c r="N6" t="n">
-        <v>0.04080487438478174</v>
+        <v>0.04292661011786137</v>
       </c>
       <c r="O6" t="n">
-        <v>0.03910406730974397</v>
+        <v>0.0413257609343315</v>
       </c>
       <c r="P6" t="n">
-        <v>0.03910406730974397</v>
+        <v>0.04046453873161566</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.03850587367765488</v>
+        <v>0.03874300544439693</v>
       </c>
       <c r="R6" t="n">
-        <v>0.03829645229366953</v>
+        <v>0.03789335346122086</v>
       </c>
       <c r="S6" t="n">
-        <v>0.03768462273473294</v>
+        <v>0.03692675991207781</v>
       </c>
       <c r="T6" t="n">
-        <v>0.03687012163969161</v>
+        <v>0.03643257144655158</v>
       </c>
       <c r="U6" t="n">
-        <v>0.03687012163969161</v>
+        <v>0.03619799231435805</v>
       </c>
       <c r="V6" t="n">
-        <v>0.03687012163969161</v>
+        <v>0.03578720789809184</v>
       </c>
       <c r="W6" t="n">
-        <v>0.0366108320933393</v>
+        <v>0.03574094596271262</v>
       </c>
       <c r="X6" t="n">
-        <v>0.0366108320933393</v>
+        <v>0.0356789070684336</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.0361161349859432</v>
+        <v>0.03560753748899362</v>
       </c>
     </row>
     <row r="7">
@@ -965,73 +965,73 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5312504768371582</v>
+        <v>1.052002668380737</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1724.182085578615</v>
+        <v>1844.537716492403</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08512857138646447</v>
+        <v>0.1355283607395215</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06450526370503103</v>
+        <v>0.09690146705006931</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05521464252854071</v>
+        <v>0.08108314503030156</v>
       </c>
       <c r="I7" t="n">
-        <v>0.05035078510835539</v>
+        <v>0.06965851348985574</v>
       </c>
       <c r="J7" t="n">
-        <v>0.04819242687295605</v>
+        <v>0.05871170763278336</v>
       </c>
       <c r="K7" t="n">
-        <v>0.04502861270157941</v>
+        <v>0.05305234051353432</v>
       </c>
       <c r="L7" t="n">
-        <v>0.04345230591238183</v>
+        <v>0.04911119081491815</v>
       </c>
       <c r="M7" t="n">
-        <v>0.04030346733668112</v>
+        <v>0.04500451950167123</v>
       </c>
       <c r="N7" t="n">
-        <v>0.04030346733668112</v>
+        <v>0.04448308821927766</v>
       </c>
       <c r="O7" t="n">
-        <v>0.03886844001359686</v>
+        <v>0.04210919094789722</v>
       </c>
       <c r="P7" t="n">
-        <v>0.03695604488102404</v>
+        <v>0.04040512136016771</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.03682704807558641</v>
+        <v>0.03899300976856405</v>
       </c>
       <c r="R7" t="n">
-        <v>0.03654882779917468</v>
+        <v>0.03855522361015514</v>
       </c>
       <c r="S7" t="n">
-        <v>0.03551882953014283</v>
+        <v>0.03732823562869549</v>
       </c>
       <c r="T7" t="n">
-        <v>0.03551882953014283</v>
+        <v>0.03689100279275073</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03458832289149294</v>
+        <v>0.03674500932785378</v>
       </c>
       <c r="V7" t="n">
-        <v>0.03444975431453014</v>
+        <v>0.03648511593990093</v>
       </c>
       <c r="W7" t="n">
-        <v>0.03417814335690385</v>
+        <v>0.03627372517902573</v>
       </c>
       <c r="X7" t="n">
-        <v>0.03407139130590393</v>
+        <v>0.03601960374606182</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.03360978724324785</v>
+        <v>0.03595590090628465</v>
       </c>
     </row>
     <row r="8">
@@ -1044,73 +1044,73 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5468764305114746</v>
+        <v>1.341996669769287</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1755.495879773302</v>
+        <v>1826.69292853496</v>
       </c>
       <c r="F8" t="n">
-        <v>0.08718237731886827</v>
+        <v>0.133713709466977</v>
       </c>
       <c r="G8" t="n">
-        <v>0.06558120120366363</v>
+        <v>0.1030438197670616</v>
       </c>
       <c r="H8" t="n">
-        <v>0.05871634743644858</v>
+        <v>0.07966442326432682</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04793055603178414</v>
+        <v>0.06850593779019164</v>
       </c>
       <c r="J8" t="n">
-        <v>0.04667405391484881</v>
+        <v>0.05741519585426614</v>
       </c>
       <c r="K8" t="n">
-        <v>0.04537609664418107</v>
+        <v>0.05328651570010589</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04211558706205529</v>
+        <v>0.04911999366269498</v>
       </c>
       <c r="M8" t="n">
-        <v>0.04021780178452201</v>
+        <v>0.04585073936838294</v>
       </c>
       <c r="N8" t="n">
-        <v>0.04017418625259082</v>
+        <v>0.04370039545059348</v>
       </c>
       <c r="O8" t="n">
-        <v>0.03705305364947834</v>
+        <v>0.04065636743945738</v>
       </c>
       <c r="P8" t="n">
-        <v>0.03705305364947834</v>
+        <v>0.03913423761535903</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.03705305364947834</v>
+        <v>0.03816917561457289</v>
       </c>
       <c r="R8" t="n">
-        <v>0.03655147524809303</v>
+        <v>0.03764284110849648</v>
       </c>
       <c r="S8" t="n">
-        <v>0.03585718174033449</v>
+        <v>0.03673586775370491</v>
       </c>
       <c r="T8" t="n">
-        <v>0.03502515297886575</v>
+        <v>0.0364034550555528</v>
       </c>
       <c r="U8" t="n">
-        <v>0.03476700000337292</v>
+        <v>0.03611740091957354</v>
       </c>
       <c r="V8" t="n">
-        <v>0.03458727924199133</v>
+        <v>0.03584013067508935</v>
       </c>
       <c r="W8" t="n">
-        <v>0.03428485331567468</v>
+        <v>0.03578710764669066</v>
       </c>
       <c r="X8" t="n">
-        <v>0.03428485331567468</v>
+        <v>0.03569904997598621</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.03422019258817351</v>
+        <v>0.03560804928918049</v>
       </c>
     </row>
     <row r="9">
@@ -1123,73 +1123,73 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5468649864196777</v>
+        <v>1.066000461578369</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1715.432660156823</v>
+        <v>1851.517649274663</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08792296719804281</v>
+        <v>0.1374613389252656</v>
       </c>
       <c r="G9" t="n">
-        <v>0.06582458834481644</v>
+        <v>0.09371976525044966</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05893347864143205</v>
+        <v>0.08224030088370353</v>
       </c>
       <c r="I9" t="n">
-        <v>0.05076377973140533</v>
+        <v>0.06850881005748262</v>
       </c>
       <c r="J9" t="n">
-        <v>0.04623350212370703</v>
+        <v>0.05855270088398399</v>
       </c>
       <c r="K9" t="n">
-        <v>0.04411371696620877</v>
+        <v>0.05203415667921735</v>
       </c>
       <c r="L9" t="n">
-        <v>0.04280404679593963</v>
+        <v>0.04838300138406228</v>
       </c>
       <c r="M9" t="n">
-        <v>0.03959158036598972</v>
+        <v>0.04567977807337065</v>
       </c>
       <c r="N9" t="n">
-        <v>0.03823349180385541</v>
+        <v>0.042606484294713</v>
       </c>
       <c r="O9" t="n">
-        <v>0.03784569161632855</v>
+        <v>0.04150007426121753</v>
       </c>
       <c r="P9" t="n">
-        <v>0.03784202451084025</v>
+        <v>0.03954062741801743</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.03667197913648539</v>
+        <v>0.03841466265130356</v>
       </c>
       <c r="R9" t="n">
-        <v>0.03585499542409722</v>
+        <v>0.03770415153161494</v>
       </c>
       <c r="S9" t="n">
-        <v>0.0354022151548756</v>
+        <v>0.03733207457834017</v>
       </c>
       <c r="T9" t="n">
-        <v>0.03459795445528014</v>
+        <v>0.03678983764577225</v>
       </c>
       <c r="U9" t="n">
-        <v>0.034336525319059</v>
+        <v>0.03659211755826047</v>
       </c>
       <c r="V9" t="n">
-        <v>0.0341667191189395</v>
+        <v>0.03652836407389177</v>
       </c>
       <c r="W9" t="n">
-        <v>0.03370228935135031</v>
+        <v>0.03626950721392352</v>
       </c>
       <c r="X9" t="n">
-        <v>0.03360355012582299</v>
+        <v>0.03622581547867144</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.03343923314145852</v>
+        <v>0.03609196197416496</v>
       </c>
     </row>
     <row r="10">
@@ -1202,73 +1202,73 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5468835830688477</v>
+        <v>1.198999881744385</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1807.825521385472</v>
+        <v>1862.409047204985</v>
       </c>
       <c r="F10" t="n">
-        <v>0.08601449778816503</v>
+        <v>0.1293499576885841</v>
       </c>
       <c r="G10" t="n">
-        <v>0.06904912275817471</v>
+        <v>0.1033937403065161</v>
       </c>
       <c r="H10" t="n">
-        <v>0.05874797388748215</v>
+        <v>0.07932350838552298</v>
       </c>
       <c r="I10" t="n">
-        <v>0.05182706490755814</v>
+        <v>0.06501663577840935</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0477462870105682</v>
+        <v>0.05872217903012848</v>
       </c>
       <c r="K10" t="n">
-        <v>0.04617220239008156</v>
+        <v>0.05194877695962238</v>
       </c>
       <c r="L10" t="n">
-        <v>0.04397883832909889</v>
+        <v>0.04672563930604243</v>
       </c>
       <c r="M10" t="n">
-        <v>0.04181601043002973</v>
+        <v>0.04492751804631682</v>
       </c>
       <c r="N10" t="n">
-        <v>0.04126264179257171</v>
+        <v>0.0433931164931188</v>
       </c>
       <c r="O10" t="n">
-        <v>0.03974088021910053</v>
+        <v>0.04075839205722648</v>
       </c>
       <c r="P10" t="n">
-        <v>0.03835819588876534</v>
+        <v>0.04046567955148522</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.0377406164495593</v>
+        <v>0.03889803235334647</v>
       </c>
       <c r="R10" t="n">
-        <v>0.0368001503552299</v>
+        <v>0.03832190609137021</v>
       </c>
       <c r="S10" t="n">
-        <v>0.0368001503552299</v>
+        <v>0.03762098723454178</v>
       </c>
       <c r="T10" t="n">
-        <v>0.03642703282131078</v>
+        <v>0.03726417683206392</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03626125020393249</v>
+        <v>0.03706618380021307</v>
       </c>
       <c r="V10" t="n">
-        <v>0.03583956568573277</v>
+        <v>0.03685038108494265</v>
       </c>
       <c r="W10" t="n">
-        <v>0.03558098258102033</v>
+        <v>0.03661669618059692</v>
       </c>
       <c r="X10" t="n">
-        <v>0.03548247742237016</v>
+        <v>0.03642635003873098</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.03524026357476553</v>
+        <v>0.03630426992602308</v>
       </c>
     </row>
     <row r="11">
@@ -1281,73 +1281,73 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5312497615814209</v>
+        <v>1.094008445739746</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1727.073000699475</v>
+        <v>1834.292166806421</v>
       </c>
       <c r="F11" t="n">
-        <v>0.08601700353881347</v>
+        <v>0.1262916432714495</v>
       </c>
       <c r="G11" t="n">
-        <v>0.06786659585851582</v>
+        <v>0.08967207712067368</v>
       </c>
       <c r="H11" t="n">
-        <v>0.05769527257236647</v>
+        <v>0.07612048049073943</v>
       </c>
       <c r="I11" t="n">
-        <v>0.054487598805918</v>
+        <v>0.06417723975115938</v>
       </c>
       <c r="J11" t="n">
-        <v>0.04966698138800563</v>
+        <v>0.05694102592608619</v>
       </c>
       <c r="K11" t="n">
-        <v>0.04528757105149364</v>
+        <v>0.05136793995655132</v>
       </c>
       <c r="L11" t="n">
-        <v>0.04354265171496675</v>
+        <v>0.04802779891832511</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0410408828391178</v>
+        <v>0.0460594767022075</v>
       </c>
       <c r="N11" t="n">
-        <v>0.03953801086422708</v>
+        <v>0.04287652300610758</v>
       </c>
       <c r="O11" t="n">
-        <v>0.03852363971535211</v>
+        <v>0.04150719874883466</v>
       </c>
       <c r="P11" t="n">
-        <v>0.03798951331632679</v>
+        <v>0.03976349694591073</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.03688574028108508</v>
+        <v>0.03853515690943396</v>
       </c>
       <c r="R11" t="n">
-        <v>0.03577517091126691</v>
+        <v>0.03685722792341475</v>
       </c>
       <c r="S11" t="n">
-        <v>0.03527650282062461</v>
+        <v>0.03685722792341475</v>
       </c>
       <c r="T11" t="n">
-        <v>0.03500066483031491</v>
+        <v>0.03684794093417776</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03459427012250844</v>
+        <v>0.03647480103202949</v>
       </c>
       <c r="V11" t="n">
-        <v>0.0342370161292235</v>
+        <v>0.03614547556745465</v>
       </c>
       <c r="W11" t="n">
-        <v>0.03408210435227466</v>
+        <v>0.03604103317070813</v>
       </c>
       <c r="X11" t="n">
-        <v>0.03398520827667384</v>
+        <v>0.03579360454179947</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.03366614036451217</v>
+        <v>0.03575618258881911</v>
       </c>
     </row>
   </sheetData>
